--- a/Code/Results/Cases/Case_1_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4414268386811528</v>
+        <v>0.1608506101308365</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05343433007376852</v>
+        <v>0.165341538105249</v>
       </c>
       <c r="E2">
-        <v>0.03884024934235963</v>
+        <v>0.1310240930147621</v>
       </c>
       <c r="F2">
-        <v>1.291621831706237</v>
+        <v>1.39207083062135</v>
       </c>
       <c r="G2">
-        <v>0.0007637425859655681</v>
+        <v>0.002423139866598334</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2819359231193665</v>
+        <v>0.3688388074871369</v>
       </c>
       <c r="J2">
-        <v>0.03810734649675318</v>
+        <v>0.137291349773351</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.810300713029804</v>
+        <v>0.7647322773308929</v>
       </c>
       <c r="N2">
-        <v>1.753785526006908</v>
+        <v>1.315290495938342</v>
       </c>
       <c r="O2">
-        <v>3.830100859632239</v>
+        <v>3.500899659374511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3846399461463363</v>
+        <v>0.1423618748002156</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0542477597100568</v>
+        <v>0.1664409464868015</v>
       </c>
       <c r="E3">
-        <v>0.04053669841975882</v>
+        <v>0.1325557332136285</v>
       </c>
       <c r="F3">
-        <v>1.156161407534654</v>
+        <v>1.369494441465534</v>
       </c>
       <c r="G3">
-        <v>0.0007697027222923113</v>
+        <v>0.002427163182120056</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2767114896585205</v>
+        <v>0.3694989586157469</v>
       </c>
       <c r="J3">
-        <v>0.04063138223280482</v>
+        <v>0.1394176267524401</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.574990157522549</v>
+        <v>0.694572930943977</v>
       </c>
       <c r="N3">
-        <v>1.632369907684392</v>
+        <v>1.278227656929744</v>
       </c>
       <c r="O3">
-        <v>3.397100627083091</v>
+        <v>3.419403185468127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3497093266998803</v>
+        <v>0.1309860365615094</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05481115820489357</v>
+        <v>0.1671633826388614</v>
       </c>
       <c r="E4">
-        <v>0.04167176875396361</v>
+        <v>0.1335555536175983</v>
       </c>
       <c r="F4">
-        <v>1.075356559216857</v>
+        <v>1.356530393248875</v>
       </c>
       <c r="G4">
-        <v>0.0007734767098975322</v>
+        <v>0.002429766796046149</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2739019754606318</v>
+        <v>0.3701280429628753</v>
       </c>
       <c r="J4">
-        <v>0.0423266705837122</v>
+        <v>0.1408039308630835</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.430810868443217</v>
+        <v>0.6515058652062464</v>
       </c>
       <c r="N4">
-        <v>1.55864334679157</v>
+        <v>1.25589235021036</v>
       </c>
       <c r="O4">
-        <v>3.138012725369009</v>
+        <v>3.371694907330408</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3354574829404982</v>
+        <v>0.126344764268211</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05505640236567544</v>
+        <v>0.1674697133404095</v>
       </c>
       <c r="E5">
-        <v>0.04215699790964766</v>
+        <v>0.1339779170882993</v>
       </c>
       <c r="F5">
-        <v>1.042969990981717</v>
+        <v>1.351472740341421</v>
       </c>
       <c r="G5">
-        <v>0.0007750442530418586</v>
+        <v>0.002430861412835248</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2728550405900698</v>
+        <v>0.3704408556211405</v>
       </c>
       <c r="J5">
-        <v>0.04305248216386381</v>
+        <v>0.1413891387838753</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.372110176911661</v>
+        <v>0.6339595954394071</v>
       </c>
       <c r="N5">
-        <v>1.528799041197999</v>
+        <v>1.246897933924785</v>
       </c>
       <c r="O5">
-        <v>3.033972189026201</v>
+        <v>3.352837886300989</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3330898889855121</v>
+        <v>0.1255737634324703</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05509805849542815</v>
+        <v>0.1675213004099145</v>
       </c>
       <c r="E6">
-        <v>0.04223891642103528</v>
+        <v>0.13404895172817</v>
       </c>
       <c r="F6">
-        <v>1.037623468583547</v>
+        <v>1.350646514302355</v>
       </c>
       <c r="G6">
-        <v>0.0007753063544320248</v>
+        <v>0.002431045207092771</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2726870525496281</v>
+        <v>0.3704962133840652</v>
       </c>
       <c r="J6">
-        <v>0.0431750687474004</v>
+        <v>0.1414875359520362</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.362365584202493</v>
+        <v>0.6310463201532457</v>
       </c>
       <c r="N6">
-        <v>1.523855291429157</v>
+        <v>1.245410947098776</v>
       </c>
       <c r="O6">
-        <v>3.01678475733064</v>
+        <v>3.349741946757064</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3495171933295325</v>
+        <v>0.130923464544864</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05481440281231542</v>
+        <v>0.1671674655894435</v>
       </c>
       <c r="E7">
-        <v>0.04167822195017035</v>
+        <v>0.1335611893204973</v>
       </c>
       <c r="F7">
-        <v>1.07491765595465</v>
+        <v>1.356461272392721</v>
       </c>
       <c r="G7">
-        <v>0.0007734977293521564</v>
+        <v>0.002429781422123536</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.273887462295189</v>
+        <v>0.3701320328202478</v>
       </c>
       <c r="J7">
-        <v>0.04233631963188067</v>
+        <v>0.1408117411181395</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.430019021958984</v>
+        <v>0.6512692127499236</v>
       </c>
       <c r="N7">
-        <v>1.558240055783898</v>
+        <v>1.255770611591686</v>
       </c>
       <c r="O7">
-        <v>3.136603572078343</v>
+        <v>3.371438230546886</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.421858925351188</v>
+        <v>0.1544808599800547</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05370126369871642</v>
+        <v>0.1657107858862918</v>
       </c>
       <c r="E8">
-        <v>0.03940528564985968</v>
+        <v>0.1315398739671991</v>
       </c>
       <c r="F8">
-        <v>1.244390153598246</v>
+        <v>1.384099813618988</v>
       </c>
       <c r="G8">
-        <v>0.0007657744087615856</v>
+        <v>0.002424499508277434</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.280050514666911</v>
+        <v>0.3690201023240256</v>
       </c>
       <c r="J8">
-        <v>0.0389464264811501</v>
+        <v>0.1380077099591066</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.729088674031843</v>
+        <v>0.740539693841157</v>
       </c>
       <c r="N8">
-        <v>1.711746085915564</v>
+        <v>1.302424603267468</v>
       </c>
       <c r="O8">
-        <v>3.679293675619135</v>
+        <v>3.472314880006991</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5632970310389851</v>
+        <v>0.2004723384094405</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05204635675403146</v>
+        <v>0.1632296546840575</v>
       </c>
       <c r="E9">
-        <v>0.03572840812878386</v>
+        <v>0.1280474675409247</v>
       </c>
       <c r="F9">
-        <v>1.598139274346693</v>
+        <v>1.445450909538621</v>
       </c>
       <c r="G9">
-        <v>0.0007514963007896014</v>
+        <v>0.002415194291100224</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2954018585105267</v>
+        <v>0.3686070059194329</v>
       </c>
       <c r="J9">
-        <v>0.03353116503338427</v>
+        <v>0.1331511114278943</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>2.319109946637681</v>
+        <v>0.9156457298577863</v>
       </c>
       <c r="N9">
-        <v>2.019668205000528</v>
+        <v>1.397199755681953</v>
       </c>
       <c r="O9">
-        <v>4.805322880174344</v>
+        <v>3.688717252645858</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.667081221598437</v>
+        <v>0.2341185443242466</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0511831800521918</v>
+        <v>0.1616347364270538</v>
       </c>
       <c r="E10">
-        <v>0.03356011205047871</v>
+        <v>0.1257691517323929</v>
       </c>
       <c r="F10">
-        <v>1.875089695328455</v>
+        <v>1.494930378922788</v>
       </c>
       <c r="G10">
-        <v>0.0007414732077245834</v>
+        <v>0.002408992541847799</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3088269104286034</v>
+        <v>0.3693709900524276</v>
       </c>
       <c r="J10">
-        <v>0.03041914685323732</v>
+        <v>0.129976084875878</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.756575933110724</v>
+        <v>1.0442827736547</v>
       </c>
       <c r="N10">
-        <v>2.250679475333925</v>
+        <v>1.468766788754976</v>
       </c>
       <c r="O10">
-        <v>5.6825950770492</v>
+        <v>3.859182702852991</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7142986082072866</v>
+        <v>0.2493900399978486</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05087463615322463</v>
+        <v>0.1609584805111623</v>
       </c>
       <c r="E11">
-        <v>0.03270321990433267</v>
+        <v>0.1247951675443533</v>
       </c>
       <c r="F11">
-        <v>2.005775998886023</v>
+        <v>1.518406494733796</v>
       </c>
       <c r="G11">
-        <v>0.0007369996983741522</v>
+        <v>0.002406307575935956</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.315437022171956</v>
+        <v>0.3699482995282395</v>
       </c>
       <c r="J11">
-        <v>0.02921948727427726</v>
+        <v>0.1286174049579625</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.956916446259413</v>
+        <v>1.102792171155912</v>
       </c>
       <c r="N11">
-        <v>2.356951754022305</v>
+        <v>1.501731095903466</v>
       </c>
       <c r="O11">
-        <v>6.095599905665551</v>
+        <v>3.939256400993941</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7321820119474296</v>
+        <v>0.2551676310247331</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.05077059529689976</v>
+        <v>0.1607094727261966</v>
       </c>
       <c r="E12">
-        <v>0.03239861017979084</v>
+        <v>0.1244353290169276</v>
       </c>
       <c r="F12">
-        <v>2.056031467076494</v>
+        <v>1.527436125295097</v>
       </c>
       <c r="G12">
-        <v>0.0007353166801565595</v>
+        <v>0.002405310328937506</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3180156399812475</v>
+        <v>0.3701997739572604</v>
       </c>
       <c r="J12">
-        <v>0.02879883252473547</v>
+        <v>0.1281152591509791</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3.033015067506383</v>
+        <v>1.124946019625625</v>
       </c>
       <c r="N12">
-        <v>2.397376839480387</v>
+        <v>1.514271206361627</v>
       </c>
       <c r="O12">
-        <v>6.254281582426358</v>
+        <v>3.969944000119824</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7283303176874938</v>
+        <v>0.2539235705150702</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.05079242126195638</v>
+        <v>0.160762786486579</v>
       </c>
       <c r="E13">
-        <v>0.0324633082004615</v>
+        <v>0.1245124267657864</v>
       </c>
       <c r="F13">
-        <v>2.045172362923253</v>
+        <v>1.525485208627416</v>
       </c>
       <c r="G13">
-        <v>0.0007356786821497335</v>
+        <v>0.002405524238396722</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3174568773254691</v>
+        <v>0.3701441558488057</v>
       </c>
       <c r="J13">
-        <v>0.02888788906816231</v>
+        <v>0.1282228550302378</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>3.016614736604069</v>
+        <v>1.120174917416236</v>
       </c>
       <c r="N13">
-        <v>2.388662277618863</v>
+        <v>1.511567946144766</v>
       </c>
       <c r="O13">
-        <v>6.220000164419275</v>
+        <v>3.963318593826557</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7157698077695045</v>
+        <v>0.2498654765765309</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05086581589748818</v>
+        <v>0.1609378527446772</v>
       </c>
       <c r="E14">
-        <v>0.03267775355541236</v>
+        <v>0.1247653832165803</v>
       </c>
       <c r="F14">
-        <v>2.009894608502734</v>
+        <v>1.519146563993672</v>
       </c>
       <c r="G14">
-        <v>0.0007368610232773331</v>
+        <v>0.002406225142005116</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3156476343165693</v>
+        <v>0.3699683309495185</v>
       </c>
       <c r="J14">
-        <v>0.02918419025554364</v>
+        <v>0.1285758452440913</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.963172176915549</v>
+        <v>1.104614836394006</v>
       </c>
       <c r="N14">
-        <v>2.360273829905594</v>
+        <v>1.502761639323694</v>
       </c>
       <c r="O14">
-        <v>6.108607208015599</v>
+        <v>3.941773753654445</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7080766254555897</v>
+        <v>0.2473790610428068</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05091246088510459</v>
+        <v>0.1610460070244848</v>
       </c>
       <c r="E15">
-        <v>0.03281173511119562</v>
+        <v>0.1249214971778185</v>
       </c>
       <c r="F15">
-        <v>1.988388781461097</v>
+        <v>1.515282176276287</v>
       </c>
       <c r="G15">
-        <v>0.000737586631202654</v>
+        <v>0.002406657000715748</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3145493523848728</v>
+        <v>0.369864907110582</v>
       </c>
       <c r="J15">
-        <v>0.02937014292256634</v>
+        <v>0.1287936723416028</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.930468874741607</v>
+        <v>1.095083490496421</v>
       </c>
       <c r="N15">
-        <v>2.342909165053754</v>
+        <v>1.497374934230095</v>
       </c>
       <c r="O15">
-        <v>6.04068237002582</v>
+        <v>3.928624562740481</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6639957661620031</v>
+        <v>0.2331197862868066</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.05120509530761908</v>
+        <v>0.1616799220619267</v>
       </c>
       <c r="E16">
-        <v>0.03361882268040173</v>
+        <v>0.1258340610843653</v>
       </c>
       <c r="F16">
-        <v>1.866651229589237</v>
+        <v>1.493415681330731</v>
       </c>
       <c r="G16">
-        <v>0.0007417671793906733</v>
+        <v>0.002409170743682937</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.308405313210848</v>
+        <v>0.369337869583827</v>
       </c>
       <c r="J16">
-        <v>0.03050210873648496</v>
+        <v>0.1300666047945906</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.743513556046381</v>
+        <v>1.040458777898792</v>
       </c>
       <c r="N16">
-        <v>2.243759146726376</v>
+        <v>1.466620582293586</v>
       </c>
       <c r="O16">
-        <v>5.655908035375376</v>
+        <v>3.854000731416534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6369566388181056</v>
+        <v>0.2243630646781298</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05140664089260838</v>
+        <v>0.1620814225620499</v>
       </c>
       <c r="E17">
-        <v>0.03414797141384973</v>
+        <v>0.12640988741264</v>
       </c>
       <c r="F17">
-        <v>1.793235243934987</v>
+        <v>1.480249550992426</v>
       </c>
       <c r="G17">
-        <v>0.000744352914972148</v>
+        <v>0.002410747666532238</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3047671762901629</v>
+        <v>0.3690732694821399</v>
       </c>
       <c r="J17">
-        <v>0.03125361884559119</v>
+        <v>0.1308694741860954</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.629192850056157</v>
+        <v>1.006945315608633</v>
       </c>
       <c r="N17">
-        <v>2.183245200279202</v>
+        <v>1.447857278716867</v>
       </c>
       <c r="O17">
-        <v>5.42362115953398</v>
+        <v>3.808870275562413</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6214048026071737</v>
+        <v>0.2193232256385045</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.05153043659028</v>
+        <v>0.1623169941711033</v>
       </c>
       <c r="E18">
-        <v>0.03446442981268039</v>
+        <v>0.126746963360441</v>
       </c>
       <c r="F18">
-        <v>1.751444709593684</v>
+        <v>1.472767786077213</v>
       </c>
       <c r="G18">
-        <v>0.0007458483502045072</v>
+        <v>0.002411667500512447</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.302721758131181</v>
+        <v>0.3689427161766332</v>
       </c>
       <c r="J18">
-        <v>0.03170603373373915</v>
+        <v>0.1313393233522362</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.563561470559861</v>
+        <v>0.9876685546359596</v>
       </c>
       <c r="N18">
-        <v>2.148549868241275</v>
+        <v>1.437103620934352</v>
       </c>
       <c r="O18">
-        <v>5.291308417329731</v>
+        <v>3.78315027476367</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6161392085174668</v>
+        <v>0.2176162863111415</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05157368339208546</v>
+        <v>0.1623975517798453</v>
       </c>
       <c r="E19">
-        <v>0.0345736196657267</v>
+        <v>0.1268621003580117</v>
       </c>
       <c r="F19">
-        <v>1.737367465825571</v>
+        <v>1.470250208298438</v>
       </c>
       <c r="G19">
-        <v>0.000746356124938195</v>
+        <v>0.002411981147202023</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.302037217487598</v>
+        <v>0.3689022348919373</v>
       </c>
       <c r="J19">
-        <v>0.03186260245548667</v>
+        <v>0.1314997893032785</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.541359713741542</v>
+        <v>0.9811416905627794</v>
       </c>
       <c r="N19">
-        <v>2.136821291620777</v>
+        <v>1.433469273431228</v>
       </c>
       <c r="O19">
-        <v>5.246723445228326</v>
+        <v>3.774482717041337</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6398349464782882</v>
+        <v>0.2252955675920703</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.05138436642517874</v>
+        <v>0.1620382020928002</v>
       </c>
       <c r="E20">
-        <v>0.0340903808979176</v>
+        <v>0.1263479815127386</v>
       </c>
       <c r="F20">
-        <v>1.801004701940613</v>
+        <v>1.481641681016953</v>
       </c>
       <c r="G20">
-        <v>0.0007440768210089654</v>
+        <v>0.002410578473392559</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3051495607151971</v>
+        <v>0.3690991985135739</v>
       </c>
       <c r="J20">
-        <v>0.03117151428162046</v>
+        <v>0.130783172912361</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.641349479179411</v>
+        <v>1.01051296248491</v>
       </c>
       <c r="N20">
-        <v>2.189675474738721</v>
+        <v>1.449850690492553</v>
       </c>
       <c r="O20">
-        <v>5.448212767665837</v>
+        <v>3.813649860142959</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7194590267122294</v>
+        <v>0.2510575871238245</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.05084390485122015</v>
+        <v>0.1608862395958504</v>
       </c>
       <c r="E21">
-        <v>0.03261421578206569</v>
+        <v>0.124690839756366</v>
       </c>
       <c r="F21">
-        <v>2.020234936404719</v>
+        <v>1.52100458049722</v>
       </c>
       <c r="G21">
-        <v>0.0007365134540618485</v>
+        <v>0.002406018741398455</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3161769771426322</v>
+        <v>0.3700190846094245</v>
       </c>
       <c r="J21">
-        <v>0.02909622513194776</v>
+        <v>0.1284718277849137</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.978862841057392</v>
+        <v>1.109185283824587</v>
       </c>
       <c r="N21">
-        <v>2.368607164648068</v>
+        <v>1.505346722983461</v>
       </c>
       <c r="O21">
-        <v>6.141261584658423</v>
+        <v>3.948092062732769</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7715179164833899</v>
+        <v>0.2678629116925322</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.0505656545850357</v>
+        <v>0.1601746029243643</v>
       </c>
       <c r="E22">
-        <v>0.0317659714591354</v>
+        <v>0.1236601965146127</v>
       </c>
       <c r="F22">
-        <v>2.168037122232803</v>
+        <v>1.547545269998778</v>
       </c>
       <c r="G22">
-        <v>0.0007316337502647377</v>
+        <v>0.002403152255346678</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.323825791389126</v>
+        <v>0.3708117330353957</v>
       </c>
       <c r="J22">
-        <v>0.0279372826906652</v>
+        <v>0.1270332735264752</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>3.200834605288065</v>
+        <v>1.173658861539224</v>
       </c>
       <c r="N22">
-        <v>2.48661685076047</v>
+        <v>1.541949582647874</v>
       </c>
       <c r="O22">
-        <v>6.607685344793367</v>
+        <v>4.038088693940892</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7437304271272751</v>
+        <v>0.2588966393191185</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.05070705206837545</v>
+        <v>0.1605506471147429</v>
       </c>
       <c r="E23">
-        <v>0.03220759187094835</v>
+        <v>0.124205472639189</v>
       </c>
       <c r="F23">
-        <v>2.088705717218431</v>
+        <v>1.533305258489463</v>
       </c>
       <c r="G23">
-        <v>0.0007342328289597937</v>
+        <v>0.0024046717949473</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3197019513148263</v>
+        <v>0.3703712232799674</v>
       </c>
       <c r="J23">
-        <v>0.02853686437484626</v>
+        <v>0.1277944518767242</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>3.082221930977468</v>
+        <v>1.1392498219342</v>
       </c>
       <c r="N23">
-        <v>2.423531029726234</v>
+        <v>1.522383951809132</v>
       </c>
       <c r="O23">
-        <v>6.357411736428446</v>
+        <v>3.989860193946072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.638533684577709</v>
+        <v>0.2248740000687235</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.05139441208119777</v>
+        <v>0.1620577272908292</v>
       </c>
       <c r="E24">
-        <v>0.03411637952758007</v>
+        <v>0.1263759504017381</v>
       </c>
       <c r="F24">
-        <v>1.797490836999927</v>
+        <v>1.481012026153238</v>
       </c>
       <c r="G24">
-        <v>0.0007442016153781665</v>
+        <v>0.002410654924317181</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3049765410672798</v>
+        <v>0.3690874088017395</v>
       </c>
       <c r="J24">
-        <v>0.03120857052428683</v>
+        <v>0.1308221639648171</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.635853180227272</v>
+        <v>1.008900058597149</v>
       </c>
       <c r="N24">
-        <v>2.186768052813704</v>
+        <v>1.448949364212353</v>
       </c>
       <c r="O24">
-        <v>5.437091084983479</v>
+        <v>3.811488305817818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5250670467668215</v>
+        <v>0.1880542968757766</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05243450210045175</v>
+        <v>0.1638607687199176</v>
       </c>
       <c r="E25">
-        <v>0.03663387559539721</v>
+        <v>0.1289417722191022</v>
       </c>
       <c r="F25">
-        <v>1.499757344264353</v>
+        <v>1.428083535387444</v>
       </c>
       <c r="G25">
-        <v>0.0007552721185667942</v>
+        <v>0.002417599626549556</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2908837740513235</v>
+        <v>0.368530584173584</v>
       </c>
       <c r="J25">
-        <v>0.03485282608244944</v>
+        <v>0.1343960367203003</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2.158937932840047</v>
+        <v>0.868274248927051</v>
       </c>
       <c r="N25">
-        <v>1.935571999952742</v>
+        <v>1.371215769127332</v>
       </c>
       <c r="O25">
-        <v>4.492882910683193</v>
+        <v>3.628170192807715</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_221/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_221/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1608506101308365</v>
+        <v>0.4414268386809113</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.165341538105249</v>
+        <v>0.05343433007373299</v>
       </c>
       <c r="E2">
-        <v>0.1310240930147621</v>
+        <v>0.03884024934235963</v>
       </c>
       <c r="F2">
-        <v>1.39207083062135</v>
+        <v>1.291621831706223</v>
       </c>
       <c r="G2">
-        <v>0.002423139866598334</v>
+        <v>0.0007637425859654385</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3688388074871369</v>
+        <v>0.2819359231193417</v>
       </c>
       <c r="J2">
-        <v>0.137291349773351</v>
+        <v>0.03810734649676562</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7647322773308929</v>
+        <v>1.810300713029804</v>
       </c>
       <c r="N2">
-        <v>1.315290495938342</v>
+        <v>1.753785526006936</v>
       </c>
       <c r="O2">
-        <v>3.500899659374511</v>
+        <v>3.830100859632239</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1423618748002156</v>
+        <v>0.3846399461465779</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1664409464868015</v>
+        <v>0.05424775971005147</v>
       </c>
       <c r="E3">
-        <v>0.1325557332136285</v>
+        <v>0.04053669841975882</v>
       </c>
       <c r="F3">
-        <v>1.369494441465534</v>
+        <v>1.156161407534654</v>
       </c>
       <c r="G3">
-        <v>0.002427163182120056</v>
+        <v>0.0007697027222921069</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3694989586157469</v>
+        <v>0.2767114896585241</v>
       </c>
       <c r="J3">
-        <v>0.1394176267524401</v>
+        <v>0.04063138223285989</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.694572930943977</v>
+        <v>1.574990157522549</v>
       </c>
       <c r="N3">
-        <v>1.278227656929744</v>
+        <v>1.632369907684364</v>
       </c>
       <c r="O3">
-        <v>3.419403185468127</v>
+        <v>3.397100627083091</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1309860365615094</v>
+        <v>0.3497093266998803</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1671633826388614</v>
+        <v>0.05481115820477456</v>
       </c>
       <c r="E4">
-        <v>0.1335555536175983</v>
+        <v>0.0416717687539645</v>
       </c>
       <c r="F4">
-        <v>1.356530393248875</v>
+        <v>1.075356559216843</v>
       </c>
       <c r="G4">
-        <v>0.002429766796046149</v>
+        <v>0.0007734767098350748</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3701280429628753</v>
+        <v>0.2739019754606353</v>
       </c>
       <c r="J4">
-        <v>0.1408039308630835</v>
+        <v>0.04232667058366602</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6515058652062464</v>
+        <v>1.430810868443203</v>
       </c>
       <c r="N4">
-        <v>1.25589235021036</v>
+        <v>1.558643346791555</v>
       </c>
       <c r="O4">
-        <v>3.371694907330408</v>
+        <v>3.138012725369009</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.126344764268211</v>
+        <v>0.3354574829407397</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1674697133404095</v>
+        <v>0.05505640236556175</v>
       </c>
       <c r="E5">
-        <v>0.1339779170882993</v>
+        <v>0.04215699790961569</v>
       </c>
       <c r="F5">
-        <v>1.351472740341421</v>
+        <v>1.042969990981717</v>
       </c>
       <c r="G5">
-        <v>0.002430861412835248</v>
+        <v>0.0007750442530423164</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3704408556211405</v>
+        <v>0.2728550405900698</v>
       </c>
       <c r="J5">
-        <v>0.1413891387838753</v>
+        <v>0.04305248216402902</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6339595954394071</v>
+        <v>1.372110176911676</v>
       </c>
       <c r="N5">
-        <v>1.246897933924785</v>
+        <v>1.528799041197985</v>
       </c>
       <c r="O5">
-        <v>3.352837886300989</v>
+        <v>3.033972189026287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1255737634324703</v>
+        <v>0.3330898889854694</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1675213004099145</v>
+        <v>0.05509805849542104</v>
       </c>
       <c r="E6">
-        <v>0.13404895172817</v>
+        <v>0.04223891642102995</v>
       </c>
       <c r="F6">
-        <v>1.350646514302355</v>
+        <v>1.037623468583547</v>
       </c>
       <c r="G6">
-        <v>0.002431045207092771</v>
+        <v>0.0007753063544315231</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3704962133840652</v>
+        <v>0.2726870525496246</v>
       </c>
       <c r="J6">
-        <v>0.1414875359520362</v>
+        <v>0.04317506874745547</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6310463201532457</v>
+        <v>1.362365584202507</v>
       </c>
       <c r="N6">
-        <v>1.245410947098776</v>
+        <v>1.523855291429157</v>
       </c>
       <c r="O6">
-        <v>3.349741946757064</v>
+        <v>3.016784757330583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.130923464544864</v>
+        <v>0.3495171933295325</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1671674655894435</v>
+        <v>0.05481440281243444</v>
       </c>
       <c r="E7">
-        <v>0.1335611893204973</v>
+        <v>0.04167822195015258</v>
       </c>
       <c r="F7">
-        <v>1.356461272392721</v>
+        <v>1.07491765595465</v>
       </c>
       <c r="G7">
-        <v>0.002429781422123536</v>
+        <v>0.0007734977293521309</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3701320328202478</v>
+        <v>0.273887462295157</v>
       </c>
       <c r="J7">
-        <v>0.1408117411181395</v>
+        <v>0.04233631963188778</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6512692127499236</v>
+        <v>1.430019021958955</v>
       </c>
       <c r="N7">
-        <v>1.255770611591686</v>
+        <v>1.558240055783884</v>
       </c>
       <c r="O7">
-        <v>3.371438230546886</v>
+        <v>3.136603572078371</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1544808599800547</v>
+        <v>0.4218589253515432</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1657107858862918</v>
+        <v>0.05370126369871642</v>
       </c>
       <c r="E8">
-        <v>0.1315398739671991</v>
+        <v>0.03940528564986145</v>
       </c>
       <c r="F8">
-        <v>1.384099813618988</v>
+        <v>1.244390153598218</v>
       </c>
       <c r="G8">
-        <v>0.002424499508277434</v>
+        <v>0.0007657744087614447</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3690201023240256</v>
+        <v>0.280050514666911</v>
       </c>
       <c r="J8">
-        <v>0.1380077099591066</v>
+        <v>0.03894642648110569</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.740539693841157</v>
+        <v>1.729088674031857</v>
       </c>
       <c r="N8">
-        <v>1.302424603267468</v>
+        <v>1.711746085915593</v>
       </c>
       <c r="O8">
-        <v>3.472314880006991</v>
+        <v>3.679293675619192</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2004723384094405</v>
+        <v>0.5632970310392693</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1632296546840575</v>
+        <v>0.05204635675394265</v>
       </c>
       <c r="E9">
-        <v>0.1280474675409247</v>
+        <v>0.03572840812878297</v>
       </c>
       <c r="F9">
-        <v>1.445450909538621</v>
+        <v>1.598139274346678</v>
       </c>
       <c r="G9">
-        <v>0.002415194291100224</v>
+        <v>0.0007514963007898961</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3686070059194329</v>
+        <v>0.2954018585105587</v>
       </c>
       <c r="J9">
-        <v>0.1331511114278943</v>
+        <v>0.03353116503328124</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9156457298577863</v>
+        <v>2.319109946637681</v>
       </c>
       <c r="N9">
-        <v>1.397199755681953</v>
+        <v>2.019668205000414</v>
       </c>
       <c r="O9">
-        <v>3.688717252645858</v>
+        <v>4.805322880174401</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2341185443242466</v>
+        <v>0.6670812215985507</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1616347364270538</v>
+        <v>0.05118318005228417</v>
       </c>
       <c r="E10">
-        <v>0.1257691517323929</v>
+        <v>0.03356011205044052</v>
       </c>
       <c r="F10">
-        <v>1.494930378922788</v>
+        <v>1.875089695328441</v>
       </c>
       <c r="G10">
-        <v>0.002408992541847799</v>
+        <v>0.0007414732076781051</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3693709900524276</v>
+        <v>0.3088269104286319</v>
       </c>
       <c r="J10">
-        <v>0.129976084875878</v>
+        <v>0.03041914685323732</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.0442827736547</v>
+        <v>2.75657593311071</v>
       </c>
       <c r="N10">
-        <v>1.468766788754976</v>
+        <v>2.250679475333783</v>
       </c>
       <c r="O10">
-        <v>3.859182702852991</v>
+        <v>5.6825950770492</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2493900399978486</v>
+        <v>0.7142986082071729</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1609584805111623</v>
+        <v>0.05087463615290488</v>
       </c>
       <c r="E11">
-        <v>0.1247951675443533</v>
+        <v>0.03270321990433089</v>
       </c>
       <c r="F11">
-        <v>1.518406494733796</v>
+        <v>2.005775998886037</v>
       </c>
       <c r="G11">
-        <v>0.002406307575935956</v>
+        <v>0.0007369996984223211</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3699482995282395</v>
+        <v>0.3154370221719631</v>
       </c>
       <c r="J11">
-        <v>0.1286174049579625</v>
+        <v>0.02921948727428436</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.102792171155912</v>
+        <v>2.956916446259385</v>
       </c>
       <c r="N11">
-        <v>1.501731095903466</v>
+        <v>2.356951754022333</v>
       </c>
       <c r="O11">
-        <v>3.939256400993941</v>
+        <v>6.095599905665551</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2551676310247331</v>
+        <v>0.7321820119475433</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1607094727261966</v>
+        <v>0.05077059529689976</v>
       </c>
       <c r="E12">
-        <v>0.1244353290169276</v>
+        <v>0.03239861017981394</v>
       </c>
       <c r="F12">
-        <v>1.527436125295097</v>
+        <v>2.056031467076508</v>
       </c>
       <c r="G12">
-        <v>0.002405310328937506</v>
+        <v>0.000735316680108328</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3701997739572604</v>
+        <v>0.3180156399812475</v>
       </c>
       <c r="J12">
-        <v>0.1281152591509791</v>
+        <v>0.02879883252473547</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.124946019625625</v>
+        <v>3.033015067506383</v>
       </c>
       <c r="N12">
-        <v>1.514271206361627</v>
+        <v>2.397376839480387</v>
       </c>
       <c r="O12">
-        <v>3.969944000119824</v>
+        <v>6.254281582426358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2539235705150702</v>
+        <v>0.7283303176872096</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.160762786486579</v>
+        <v>0.0507924212620523</v>
       </c>
       <c r="E13">
-        <v>0.1245124267657864</v>
+        <v>0.03246330820050858</v>
       </c>
       <c r="F13">
-        <v>1.525485208627416</v>
+        <v>2.045172362923253</v>
       </c>
       <c r="G13">
-        <v>0.002405524238396722</v>
+        <v>0.0007356786821491075</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3701441558488057</v>
+        <v>0.3174568773254691</v>
       </c>
       <c r="J13">
-        <v>0.1282228550302378</v>
+        <v>0.02888788906814987</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.120174917416236</v>
+        <v>3.016614736604055</v>
       </c>
       <c r="N13">
-        <v>1.511567946144766</v>
+        <v>2.388662277618863</v>
       </c>
       <c r="O13">
-        <v>3.963318593826557</v>
+        <v>6.220000164419275</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2498654765765309</v>
+        <v>0.7157698077692487</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1609378527446772</v>
+        <v>0.0508658158975841</v>
       </c>
       <c r="E14">
-        <v>0.1247653832165803</v>
+        <v>0.03267775355543634</v>
       </c>
       <c r="F14">
-        <v>1.519146563993672</v>
+        <v>2.009894608502748</v>
       </c>
       <c r="G14">
-        <v>0.002406225142005116</v>
+        <v>0.0007368610233051385</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3699683309495185</v>
+        <v>0.3156476343165977</v>
       </c>
       <c r="J14">
-        <v>0.1285758452440913</v>
+        <v>0.02918419025554186</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.104614836394006</v>
+        <v>2.963172176915521</v>
       </c>
       <c r="N14">
-        <v>1.502761639323694</v>
+        <v>2.360273829905594</v>
       </c>
       <c r="O14">
-        <v>3.941773753654445</v>
+        <v>6.108607208015712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2473790610428068</v>
+        <v>0.708076625455476</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1610460070244848</v>
+        <v>0.05091246088497314</v>
       </c>
       <c r="E15">
-        <v>0.1249214971778185</v>
+        <v>0.03281173511117697</v>
       </c>
       <c r="F15">
-        <v>1.515282176276287</v>
+        <v>1.988388781461097</v>
       </c>
       <c r="G15">
-        <v>0.002406657000715748</v>
+        <v>0.0007375866312014404</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.369864907110582</v>
+        <v>0.3145493523848728</v>
       </c>
       <c r="J15">
-        <v>0.1287936723416028</v>
+        <v>0.0293701429225468</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.095083490496421</v>
+        <v>2.930468874741592</v>
       </c>
       <c r="N15">
-        <v>1.497374934230095</v>
+        <v>2.342909165053726</v>
       </c>
       <c r="O15">
-        <v>3.928624562740481</v>
+        <v>6.040682370025934</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2331197862868066</v>
+        <v>0.6639957661620883</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1616799220619267</v>
+        <v>0.0512050953075267</v>
       </c>
       <c r="E16">
-        <v>0.1258340610843653</v>
+        <v>0.03361882268042393</v>
       </c>
       <c r="F16">
-        <v>1.493415681330731</v>
+        <v>1.866651229589237</v>
       </c>
       <c r="G16">
-        <v>0.002409170743682937</v>
+        <v>0.0007417671794183399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.369337869583827</v>
+        <v>0.3084053132108728</v>
       </c>
       <c r="J16">
-        <v>0.1300666047945906</v>
+        <v>0.03050210873658799</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.040458777898792</v>
+        <v>2.743513556046366</v>
       </c>
       <c r="N16">
-        <v>1.466620582293586</v>
+        <v>2.243759146726319</v>
       </c>
       <c r="O16">
-        <v>3.854000731416534</v>
+        <v>5.655908035375376</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2243630646781298</v>
+        <v>0.6369566388179635</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1620814225620499</v>
+        <v>0.05140664089260838</v>
       </c>
       <c r="E17">
-        <v>0.12640988741264</v>
+        <v>0.03414797141384529</v>
       </c>
       <c r="F17">
-        <v>1.480249550992426</v>
+        <v>1.793235243934987</v>
       </c>
       <c r="G17">
-        <v>0.002410747666532238</v>
+        <v>0.0007443529150001709</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3690732694821399</v>
+        <v>0.3047671762901629</v>
       </c>
       <c r="J17">
-        <v>0.1308694741860954</v>
+        <v>0.03125361884568889</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.006945315608633</v>
+        <v>2.629192850056171</v>
       </c>
       <c r="N17">
-        <v>1.447857278716867</v>
+        <v>2.183245200279089</v>
       </c>
       <c r="O17">
-        <v>3.808870275562413</v>
+        <v>5.423621159533923</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2193232256385045</v>
+        <v>0.6214048026071737</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1623169941711033</v>
+        <v>0.05153043659026224</v>
       </c>
       <c r="E18">
-        <v>0.126746963360441</v>
+        <v>0.03446442981269549</v>
       </c>
       <c r="F18">
-        <v>1.472767786077213</v>
+        <v>1.751444709593684</v>
       </c>
       <c r="G18">
-        <v>0.002411667500512447</v>
+        <v>0.0007458483502054999</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3689427161766332</v>
+        <v>0.302721758131181</v>
       </c>
       <c r="J18">
-        <v>0.1313393233522362</v>
+        <v>0.0317060337337054</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9876685546359596</v>
+        <v>2.563561470559847</v>
       </c>
       <c r="N18">
-        <v>1.437103620934352</v>
+        <v>2.148549868241304</v>
       </c>
       <c r="O18">
-        <v>3.78315027476367</v>
+        <v>5.291308417329731</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2176162863111415</v>
+        <v>0.6161392085173247</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1623975517798453</v>
+        <v>0.05157368339208546</v>
       </c>
       <c r="E19">
-        <v>0.1268621003580117</v>
+        <v>0.03457361966569827</v>
       </c>
       <c r="F19">
-        <v>1.470250208298438</v>
+        <v>1.737367465825571</v>
       </c>
       <c r="G19">
-        <v>0.002411981147202023</v>
+        <v>0.000746356125011097</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3689022348919373</v>
+        <v>0.302037217487598</v>
       </c>
       <c r="J19">
-        <v>0.1314997893032785</v>
+        <v>0.03186260245542805</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9811416905627794</v>
+        <v>2.541359713741514</v>
       </c>
       <c r="N19">
-        <v>1.433469273431228</v>
+        <v>2.136821291620635</v>
       </c>
       <c r="O19">
-        <v>3.774482717041337</v>
+        <v>5.246723445228383</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2252955675920703</v>
+        <v>0.639834946478544</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1620382020928002</v>
+        <v>0.05138436642506861</v>
       </c>
       <c r="E20">
-        <v>0.1263479815127386</v>
+        <v>0.03409038089791849</v>
       </c>
       <c r="F20">
-        <v>1.481641681016953</v>
+        <v>1.801004701940613</v>
       </c>
       <c r="G20">
-        <v>0.002410578473392559</v>
+        <v>0.0007440768210369161</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3690991985135739</v>
+        <v>0.3051495607151935</v>
       </c>
       <c r="J20">
-        <v>0.130783172912361</v>
+        <v>0.03117151428162401</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.01051296248491</v>
+        <v>2.641349479179411</v>
       </c>
       <c r="N20">
-        <v>1.449850690492553</v>
+        <v>2.189675474738721</v>
       </c>
       <c r="O20">
-        <v>3.813649860142959</v>
+        <v>5.448212767665893</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2510575871238245</v>
+        <v>0.7194590267122294</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1608862395958504</v>
+        <v>0.05084390485110291</v>
       </c>
       <c r="E21">
-        <v>0.124690839756366</v>
+        <v>0.03261421578207546</v>
       </c>
       <c r="F21">
-        <v>1.52100458049722</v>
+        <v>2.020234936404705</v>
       </c>
       <c r="G21">
-        <v>0.002406018741398455</v>
+        <v>0.0007365134540328729</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3700190846094245</v>
+        <v>0.3161769771426322</v>
       </c>
       <c r="J21">
-        <v>0.1284718277849137</v>
+        <v>0.02909622513198862</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.109185283824587</v>
+        <v>2.978862841057364</v>
       </c>
       <c r="N21">
-        <v>1.505346722983461</v>
+        <v>2.36860716464804</v>
       </c>
       <c r="O21">
-        <v>3.948092062732769</v>
+        <v>6.14126158465848</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2678629116925322</v>
+        <v>0.7715179164832762</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1601746029243643</v>
+        <v>0.05056565458515294</v>
       </c>
       <c r="E22">
-        <v>0.1236601965146127</v>
+        <v>0.03176597145913362</v>
       </c>
       <c r="F22">
-        <v>1.547545269998778</v>
+        <v>2.168037122232803</v>
       </c>
       <c r="G22">
-        <v>0.002403152255346678</v>
+        <v>0.000731633750265112</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3708117330353957</v>
+        <v>0.323825791389126</v>
       </c>
       <c r="J22">
-        <v>0.1270332735264752</v>
+        <v>0.02793728269072204</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.173658861539224</v>
+        <v>3.200834605288051</v>
       </c>
       <c r="N22">
-        <v>1.541949582647874</v>
+        <v>2.486616850760583</v>
       </c>
       <c r="O22">
-        <v>4.038088693940892</v>
+        <v>6.60768534479331</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2588966393191185</v>
+        <v>0.7437304271271898</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1605506471147429</v>
+        <v>0.05070705206827597</v>
       </c>
       <c r="E23">
-        <v>0.124205472639189</v>
+        <v>0.0322075918709599</v>
       </c>
       <c r="F23">
-        <v>1.533305258489463</v>
+        <v>2.088705717218417</v>
       </c>
       <c r="G23">
-        <v>0.0024046717949473</v>
+        <v>0.000734232829035733</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3703712232799674</v>
+        <v>0.3197019513148192</v>
       </c>
       <c r="J23">
-        <v>0.1277944518767242</v>
+        <v>0.02853686437484093</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.1392498219342</v>
+        <v>3.082221930977468</v>
       </c>
       <c r="N23">
-        <v>1.522383951809132</v>
+        <v>2.42353102972632</v>
       </c>
       <c r="O23">
-        <v>3.989860193946072</v>
+        <v>6.357411736428503</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2248740000687235</v>
+        <v>0.6385336845778511</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1620577272908292</v>
+        <v>0.05139441208109119</v>
       </c>
       <c r="E24">
-        <v>0.1263759504017381</v>
+        <v>0.03411637952757829</v>
       </c>
       <c r="F24">
-        <v>1.481012026153238</v>
+        <v>1.797490836999941</v>
       </c>
       <c r="G24">
-        <v>0.002410654924317181</v>
+        <v>0.0007442016153780349</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3690874088017395</v>
+        <v>0.3049765410672762</v>
       </c>
       <c r="J24">
-        <v>0.1308221639648171</v>
+        <v>0.0312085705242886</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.008900058597149</v>
+        <v>2.635853180227258</v>
       </c>
       <c r="N24">
-        <v>1.448949364212353</v>
+        <v>2.186768052813818</v>
       </c>
       <c r="O24">
-        <v>3.811488305817818</v>
+        <v>5.437091084983479</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1880542968757766</v>
+        <v>0.5250670467669352</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1638607687199176</v>
+        <v>0.05243450210056189</v>
       </c>
       <c r="E25">
-        <v>0.1289417722191022</v>
+        <v>0.03663387559539633</v>
       </c>
       <c r="F25">
-        <v>1.428083535387444</v>
+        <v>1.499757344264339</v>
       </c>
       <c r="G25">
-        <v>0.002417599626549556</v>
+        <v>0.0007552721186083666</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.368530584173584</v>
+        <v>0.2908837740513519</v>
       </c>
       <c r="J25">
-        <v>0.1343960367203003</v>
+        <v>0.03485282608245122</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.868274248927051</v>
+        <v>2.158937932840018</v>
       </c>
       <c r="N25">
-        <v>1.371215769127332</v>
+        <v>1.935571999952742</v>
       </c>
       <c r="O25">
-        <v>3.628170192807715</v>
+        <v>4.492882910683136</v>
       </c>
     </row>
   </sheetData>
